--- a/results/DFs/DF_AlphaDiversity.xlsx
+++ b/results/DFs/DF_AlphaDiversity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliana/Documents/GitHub/SMS-6198-22-ITS/results/DFs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21576EAE-A533-F946-910C-D4E7EB9D8941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CD6F63-9921-3A4F-A8C4-1E3336341809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1580" windowWidth="28860" windowHeight="14480" xr2:uid="{417D1A7B-12E1-2449-9433-679CEA003D64}"/>
+    <workbookView xWindow="160" yWindow="1580" windowWidth="28860" windowHeight="14480" activeTab="1" xr2:uid="{417D1A7B-12E1-2449-9433-679CEA003D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Full_Data" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
   </sheets>
   <definedNames>
     <definedName name="DF_FullData_1" localSheetId="0">Full_Data!$A$1:$M$88</definedName>
-    <definedName name="DF_Main_Data" localSheetId="1">Main_Data!$A$1:$T$46</definedName>
+    <definedName name="DF_Main_Data" localSheetId="1">Main_Data!$A$1:$U$46</definedName>
     <definedName name="DF_Main_Data_ACE" localSheetId="2">Merged_Main_Data!$A$1:$B$16</definedName>
     <definedName name="DF_Main_Data_Chao1" localSheetId="2">Merged_Main_Data!#REF!</definedName>
+    <definedName name="DF_Main_Data_Eveness" localSheetId="1">Main_Data!$J$1:$J$46</definedName>
     <definedName name="DF_Main_Data_Fisher" localSheetId="2">Merged_Main_Data!#REF!</definedName>
     <definedName name="DF_Main_Data_InvSimpson" localSheetId="2">Merged_Main_Data!#REF!</definedName>
     <definedName name="DF_Main_Data_Observed" localSheetId="2">Merged_Main_Data!#REF!</definedName>
@@ -105,7 +106,14 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{6598CA67-9DB9-FE42-9751-42BE279843D3}" name="DF_Main_Data_Simpson" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="4" xr16:uid="{87CC20CC-720C-C445-A717-37E9344DCBC6}" name="DF_Main_Data_Eveness" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juliana/Documents/GitHub/SMS-6198-22-ITS/results/DFs/DF_Main_Data_Eveness.tsv" decimal="," thousands=".">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" xr16:uid="{6598CA67-9DB9-FE42-9751-42BE279843D3}" name="DF_Main_Data_Simpson" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/juliana/Documents/GitHub/SMS-6198-22-ITS/results/DFs/DF_Main_Data_Simpson.tsv" decimal="," thousands=".">
       <textFields count="3">
         <textField/>
@@ -118,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="373">
   <si>
     <t>Observed</t>
   </si>
@@ -1234,6 +1242,9 @@
   </si>
   <si>
     <t>0.880601279369277</t>
+  </si>
+  <si>
+    <t>Evenness</t>
   </si>
 </sst>
 </file>
@@ -1294,14 +1305,18 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DF_Main_Data_Eveness" connectionId="4" xr16:uid="{EF77B255-B6F4-1F47-B0F3-9FE3B754C7E2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DF_Main_Data" connectionId="2" xr16:uid="{BE90F8F2-0F6C-D747-B558-02B89D2D830D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DF_Main_Data_Simpson" connectionId="4" xr16:uid="{1B40AE07-C776-C242-AF93-B0A33B2447DE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DF_Main_Data_Simpson" connectionId="5" xr16:uid="{1B40AE07-C776-C242-AF93-B0A33B2447DE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DF_Main_Data_ACE" connectionId="3" xr16:uid="{41314765-AD13-BD40-AD87-3DD92416E333}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -1604,7 +1619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E82DC1E-C487-4549-939D-D3B482C1984D}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -5241,10 +5256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400FBBB9-6519-5040-AB9D-5D4729D1E2FA}">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5256,21 +5271,22 @@
     <col min="5" max="6" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5299,40 +5315,43 @@
         <v>309</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>240</v>
       </c>
@@ -5360,41 +5379,44 @@
       <c r="I2" s="1">
         <v>297328908078602</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="1">
+        <v>548063892334199</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>2.9902777777777776</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="1">
+      <c r="T2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="1">
         <v>95207</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>134</v>
       </c>
@@ -5422,41 +5444,44 @@
       <c r="I3" s="1">
         <v>152169732202265</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="1">
+        <v>489783979995091</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>1.8055555555555557E-2</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>2.9548611111111112</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>23</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>1</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="1">
+      <c r="T3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="1">
         <v>101541</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>203</v>
       </c>
@@ -5484,41 +5509,44 @@
       <c r="I4" s="1">
         <v>243336073202731</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="1">
+        <v>531320597904179</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>2.8770833333333332</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>43</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>2</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="1">
+      <c r="T4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="1">
         <v>102129</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>296</v>
       </c>
@@ -5546,41 +5574,44 @@
       <c r="I5" s="1">
         <v>402269050556998</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="1">
+        <v>569035945432406</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>63</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>3</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="1">
+      <c r="T5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="1">
         <v>63080</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>318</v>
       </c>
@@ -5608,41 +5639,44 @@
       <c r="I6" s="1">
         <v>443224541912522</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="1">
+        <v>576205138278018</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>4</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>1</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="1">
+      <c r="T6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="1">
         <v>57839</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>106</v>
       </c>
@@ -5670,41 +5704,44 @@
       <c r="I7" s="1">
         <v>120591249586571</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="1">
+        <v>466343909411207</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>24</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>1</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" s="1">
+      <c r="T7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="1">
         <v>79197</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>224</v>
       </c>
@@ -5732,41 +5769,44 @@
       <c r="I8" s="1">
         <v>275365319442134</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="1">
+        <v>541164605185504</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>1.5972222222222224E-2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>2.9055555555555554</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>44</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>2</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="1">
+      <c r="T8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" s="1">
         <v>93889</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>296</v>
       </c>
@@ -5794,41 +5834,44 @@
       <c r="I9" s="1">
         <v>415721697071872</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="1">
+        <v>569035945432406</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>2.9763888888888892</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>64</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>3</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="1">
+      <c r="T9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="1">
         <v>51368</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>213</v>
       </c>
@@ -5856,41 +5899,44 @@
       <c r="I10" s="1">
         <v>252736475986516</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="1">
+        <v>536129216570943</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>3.025694444444444</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>5</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>1</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T10" s="1">
+      <c r="T10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="1">
         <v>115531</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>133</v>
       </c>
@@ -5918,41 +5964,44 @@
       <c r="I11" s="1">
         <v>158109402948741</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="1">
+        <v>489034912822175</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>25</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>1</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T11" s="1">
+      <c r="T11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" s="1">
         <v>71138</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>182</v>
       </c>
@@ -5980,41 +6029,44 @@
       <c r="I12" s="1">
         <v>230982047263278</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="1">
+        <v>52040066870768</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>2.9291666666666667</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>45</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>2</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T12" s="1">
+      <c r="T12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="1">
         <v>61009</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>346</v>
       </c>
@@ -6042,41 +6094,44 @@
       <c r="I13" s="1">
         <v>493519301522078</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="1">
+        <v>584643877505772</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>1.3194444444444444E-2</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>65</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>3</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T13" s="1">
+      <c r="T13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="1">
         <v>54663</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>368</v>
       </c>
@@ -6104,41 +6159,44 @@
       <c r="I14" s="1">
         <v>514838493479089</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="1">
+        <v>590808293816893</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>2.9618055555555554</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>8</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>1</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T14" s="1">
+      <c r="T14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U14" s="1">
         <v>65405</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>187</v>
       </c>
@@ -6166,41 +6224,44 @@
       <c r="I15" s="1">
         <v>217805315893001</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="1">
+        <v>523110861685459</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>1.5972222222222224E-2</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>28</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>2</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T15" s="1">
+      <c r="T15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U15" s="1">
         <v>116597</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>160</v>
       </c>
@@ -6228,41 +6289,44 @@
       <c r="I16" s="1">
         <v>182880499433165</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="1">
+        <v>507517381523383</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>1.5972222222222224E-2</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>2.9993055555555554</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>48</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>2</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T16" s="1">
+      <c r="T16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U16" s="1">
         <v>115263</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>235</v>
       </c>
@@ -6290,41 +6354,44 @@
       <c r="I17" s="1">
         <v>358865320040781</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="1">
+        <v>545958551414416</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>2.7645833333333329</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>68</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>3</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T17" s="1">
+      <c r="T17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U17" s="1">
         <v>25018</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>436</v>
       </c>
@@ -6352,41 +6419,44 @@
       <c r="I18" s="1">
         <v>631918340345687</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="1">
+        <v>607764224334903</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>9</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>1</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T18" s="1">
+      <c r="T18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U18" s="1">
         <v>62617</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>273</v>
       </c>
@@ -6414,41 +6484,44 @@
       <c r="I19" s="1">
         <v>353919735196274</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="1">
+        <v>560947179518496</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>29</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>2</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T19" s="1">
+      <c r="T19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="1">
         <v>79194</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>206</v>
       </c>
@@ -6476,41 +6549,44 @@
       <c r="I20" s="1">
         <v>246785720388643</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="1">
+        <v>532787616878958</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>2.9937499999999999</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>49</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>2</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T20" s="1">
+      <c r="T20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20" s="1">
         <v>104091</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>237</v>
       </c>
@@ -6538,41 +6614,44 @@
       <c r="I21" s="1">
         <v>329849846387107</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="1">
+        <v>546806014113513</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>1.5277777777777777E-2</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>2.9416666666666664</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>69</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>3</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T21" s="1">
+      <c r="T21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="1">
         <v>43494</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>426</v>
       </c>
@@ -6600,41 +6679,44 @@
       <c r="I22" s="1">
         <v>602527871562293</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="1">
+        <v>605443934626937</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>1.1805555555555555E-2</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>2.9458333333333333</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>10</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>1</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T22" s="1">
+      <c r="T22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U22" s="1">
         <v>70821</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>227</v>
       </c>
@@ -6662,41 +6744,44 @@
       <c r="I23" s="1">
         <v>313512291135976</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="1">
+        <v>54249500174814</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>2.9229166666666671</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>30</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>2</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T23" s="1">
+      <c r="T23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U23" s="1">
         <v>43699</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>164</v>
       </c>
@@ -6724,41 +6809,44 @@
       <c r="I24" s="1">
         <v>207895330362197</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="1">
+        <v>50998664278242</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>2.9493055555555556</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>50</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>2</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T24" s="1">
+      <c r="T24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U24" s="1">
         <v>55418</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>216</v>
       </c>
@@ -6786,41 +6874,44 @@
       <c r="I25" s="1">
         <v>284142669685876</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="1">
+        <v>537527840768417</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>2.9361111111111113</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>70</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <v>3</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T25" s="1">
+      <c r="T25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U25" s="1">
         <v>56852</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>154</v>
       </c>
@@ -6848,41 +6939,44 @@
       <c r="I26" s="1">
         <v>201774607271233</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="1">
+        <v>503695260241363</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>2.9597222222222221</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>13</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>1</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T26" s="1">
+      <c r="T26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" s="1">
         <v>41621</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>315</v>
       </c>
@@ -6910,41 +7004,44 @@
       <c r="I27" s="1">
         <v>448816163981768</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="1">
+        <v>575257263882563</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <v>3.0319444444444446</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>33</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <v>2</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="S27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T27" s="1">
+      <c r="T27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" s="1">
         <v>50091</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>244</v>
       </c>
@@ -6972,41 +7069,44 @@
       <c r="I28" s="1">
         <v>339946084241505</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="1">
+        <v>54971682252932</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>9.7222222222222224E-3</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>2.8208333333333333</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>53</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P28" s="1">
+      <c r="Q28" s="1">
         <v>3</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T28" s="1">
+      <c r="T28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U28" s="1">
         <v>44491</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>168</v>
       </c>
@@ -7034,41 +7134,44 @@
       <c r="I29" s="1">
         <v>219793111711595</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="1">
+        <v>512396397940326</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>1.1805555555555555E-2</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>2.9312499999999999</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>73</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P29" s="1">
+      <c r="Q29" s="1">
         <v>3</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T29" s="1">
+      <c r="T29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U29" s="1">
         <v>45852</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>376</v>
       </c>
@@ -7096,41 +7199,44 @@
       <c r="I30" s="1">
         <v>522591537237823</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="1">
+        <v>592958914338989</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <v>2.9576388888888889</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>34</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P30" s="1">
+      <c r="Q30" s="1">
         <v>2</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="S30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T30" s="1">
+      <c r="T30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U30" s="1">
         <v>69590</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>233</v>
       </c>
@@ -7158,41 +7264,44 @@
       <c r="I31" s="1">
         <v>282958730394217</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="1">
+        <v>54510384535657</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>1.5277777777777777E-2</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>2.8763888888888887</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>54</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="1">
+      <c r="Q31" s="1">
         <v>3</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T31" s="1">
+      <c r="T31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U31" s="1">
         <v>106603</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>196</v>
       </c>
@@ -7220,41 +7329,44 @@
       <c r="I32" s="1">
         <v>254230926801996</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="1">
+        <v>527811465923052</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <v>2.9125000000000001</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>74</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P32" s="1">
+      <c r="Q32" s="1">
         <v>3</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T32" s="1">
+      <c r="T32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U32" s="1">
         <v>56655</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>294</v>
       </c>
@@ -7282,41 +7394,44 @@
       <c r="I33" s="1">
         <v>401161581156067</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="1">
+        <v>568357976733868</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>1.5972222222222224E-2</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <v>14</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P33" s="1">
+      <c r="Q33" s="1">
         <v>1</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="S33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T33" s="1">
+      <c r="T33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U33" s="1">
         <v>61074</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>286</v>
       </c>
@@ -7344,41 +7459,44 @@
       <c r="I34" s="1">
         <v>394902669391261</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="1">
+        <v>565599181081985</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <v>15</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P34" s="1">
+      <c r="Q34" s="1">
         <v>1</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="R34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="S34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T34" s="1">
+      <c r="T34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U34" s="1">
         <v>55140</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>327</v>
       </c>
@@ -7406,41 +7524,44 @@
       <c r="I35" s="1">
         <v>468055329782063</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="1">
+        <v>578996017089725</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="1">
         <v>3.0027777777777778</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <v>35</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P35" s="1">
+      <c r="Q35" s="1">
         <v>2</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="R35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="S35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T35" s="1">
+      <c r="T35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U35" s="1">
         <v>50586</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>250</v>
       </c>
@@ -7468,41 +7589,44 @@
       <c r="I36" s="1">
         <v>351143150583439</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="1">
+        <v>552146091786225</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36" s="1">
         <v>2.8458333333333332</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O36" s="1">
         <v>55</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P36" s="1">
+      <c r="Q36" s="1">
         <v>3</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="R36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="S36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T36" s="1">
+      <c r="T36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U36" s="1">
         <v>43365</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>207</v>
       </c>
@@ -7530,41 +7654,44 @@
       <c r="I37" s="1">
         <v>263937975750735</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="1">
+        <v>533271879326537</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="M37" s="1">
+      <c r="N37" s="1">
         <v>2.9576388888888889</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="1">
         <v>75</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P37" s="1">
+      <c r="Q37" s="1">
         <v>3</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="R37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T37" s="1">
+      <c r="T37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U37" s="1">
         <v>67204</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>195</v>
       </c>
@@ -7592,41 +7719,44 @@
       <c r="I38" s="1">
         <v>271780332591292</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="1">
+        <v>527299955856375</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <v>9.7222222222222224E-3</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="N38" s="1">
-        <v>18</v>
-      </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="1">
+        <v>18</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="1">
+      <c r="Q38" s="1">
         <v>1</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="R38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="S38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T38" s="1">
+      <c r="T38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U38" s="1">
         <v>35474</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>281</v>
       </c>
@@ -7654,41 +7784,44 @@
       <c r="I39" s="1">
         <v>411607969527042</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="1">
+        <v>563835466933375</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="1">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="1">
         <v>38</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P39" s="1">
+      <c r="Q39" s="1">
         <v>2</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="R39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="S39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T39" s="1">
+      <c r="T39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U39" s="1">
         <v>37922</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>243</v>
       </c>
@@ -7716,41 +7849,44 @@
       <c r="I40" s="1">
         <v>333993757919604</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="1">
+        <v>549306144334055</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="M40" s="1">
+      <c r="N40" s="1">
         <v>2.9222222222222225</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="1">
         <v>58</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P40" s="1">
+      <c r="Q40" s="1">
         <v>3</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="R40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="S40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T40" s="1">
+      <c r="T40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U40" s="1">
         <v>48215</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>139</v>
       </c>
@@ -7778,41 +7914,44 @@
       <c r="I41" s="1">
         <v>189356966204034</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="1">
+        <v>493447393313069</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="M41" s="1">
+      <c r="N41" s="1">
         <v>2.9729166666666664</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <v>19</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P41" s="1">
+      <c r="Q41" s="1">
         <v>1</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="R41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="S41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T41" s="1">
+      <c r="T41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U41" s="1">
         <v>29174</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>261</v>
       </c>
@@ -7840,41 +7979,44 @@
       <c r="I42" s="1">
         <v>392786987428135</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="1">
+        <v>556452040732269</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L42" s="1">
+      <c r="M42" s="1">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O42" s="1">
         <v>39</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P42" s="1">
+      <c r="Q42" s="1">
         <v>2</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="S42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T42" s="1">
+      <c r="T42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U42" s="1">
         <v>30158</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>299</v>
       </c>
@@ -7902,41 +8044,44 @@
       <c r="I43" s="1">
         <v>450806862607642</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="1">
+        <v>570044357339069</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="L43" s="1">
+      <c r="M43" s="1">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="M43" s="1">
+      <c r="N43" s="1">
         <v>2.9145833333333333</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <v>59</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P43" s="1">
+      <c r="Q43" s="1">
         <v>3</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T43" s="1">
+      <c r="T43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U43" s="1">
         <v>34190</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>162</v>
       </c>
@@ -7964,41 +8109,44 @@
       <c r="I44" s="1">
         <v>222799044714598</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="1">
+        <v>508759633523238</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L44" s="1">
+      <c r="M44" s="1">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="M44" s="1">
+      <c r="N44" s="1">
         <v>2.8812500000000001</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1">
         <v>20</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="P44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P44" s="1">
+      <c r="Q44" s="1">
         <v>1</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="R44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="S44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T44" s="1">
+      <c r="T44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U44" s="1">
         <v>32020</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>237</v>
       </c>
@@ -8026,41 +8174,44 @@
       <c r="I45" s="1">
         <v>337153715796528</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="1">
+        <v>546806014113513</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="M45" s="1">
+      <c r="N45" s="1">
         <v>2.8361111111111108</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <v>40</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P45" s="1">
+      <c r="Q45" s="1">
         <v>2</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T45" s="1">
+      <c r="T45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U45" s="1">
         <v>38044</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>265</v>
       </c>
@@ -8088,37 +8239,40 @@
       <c r="I46" s="1">
         <v>388430086221479</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="1">
+        <v>557972982598622</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="M46" s="1">
+      <c r="N46" s="1">
         <v>2.9145833333333333</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="1">
         <v>60</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="P46" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P46" s="1">
+      <c r="Q46" s="1">
         <v>3</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T46" s="1">
+      <c r="T46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U46" s="1">
         <v>35624</v>
       </c>
     </row>

--- a/results/DFs/DF_AlphaDiversity.xlsx
+++ b/results/DFs/DF_AlphaDiversity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliana/Documents/GitHub/SMS-6198-22-ITS/results/DFs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CD6F63-9921-3A4F-A8C4-1E3336341809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB839A9-3D5F-014F-B173-F62E7F0A8686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1580" windowWidth="28860" windowHeight="14480" activeTab="1" xr2:uid="{417D1A7B-12E1-2449-9433-679CEA003D64}"/>
+    <workbookView xWindow="4600" yWindow="3080" windowWidth="33240" windowHeight="18540" activeTab="2" xr2:uid="{417D1A7B-12E1-2449-9433-679CEA003D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Full_Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="DF_Main_Data" localSheetId="1">Main_Data!$A$1:$U$46</definedName>
     <definedName name="DF_Main_Data_ACE" localSheetId="2">Merged_Main_Data!$A$1:$B$16</definedName>
     <definedName name="DF_Main_Data_Chao1" localSheetId="2">Merged_Main_Data!#REF!</definedName>
-    <definedName name="DF_Main_Data_Eveness" localSheetId="1">Main_Data!$J$1:$J$46</definedName>
+    <definedName name="DF_Main_Data_Eveness" localSheetId="1">Main_Data!#REF!</definedName>
     <definedName name="DF_Main_Data_Fisher" localSheetId="2">Merged_Main_Data!#REF!</definedName>
     <definedName name="DF_Main_Data_InvSimpson" localSheetId="2">Merged_Main_Data!#REF!</definedName>
     <definedName name="DF_Main_Data_Observed" localSheetId="2">Merged_Main_Data!#REF!</definedName>
@@ -30,6 +30,7 @@
     <definedName name="DF_Main_Data_se.chao1" localSheetId="2">Merged_Main_Data!#REF!</definedName>
     <definedName name="DF_Main_Data_Shannon" localSheetId="2">Merged_Main_Data!#REF!</definedName>
     <definedName name="DF_Main_Data_Simpson" localSheetId="2">Merged_Main_Data!$L$1:$L$16</definedName>
+    <definedName name="ExternalData_1" localSheetId="1">Main_Data!$J$1:$J$46</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -106,8 +107,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{87CC20CC-720C-C445-A717-37E9344DCBC6}" name="DF_Main_Data_Eveness" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juliana/Documents/GitHub/SMS-6198-22-ITS/results/DFs/DF_Main_Data_Eveness.tsv" decimal="," thousands=".">
+  <connection id="4" xr16:uid="{F9C25875-F33B-6640-958E-BF4F26623047}" name="DF_Main_Data_Eveness1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juliana/Documents/GitHub/SMS-6198-22-ITS/results/DF_Main_Data_Eveness.tsv" decimal="," thousands=".">
       <textFields>
         <textField/>
       </textFields>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="418">
   <si>
     <t>Observed</t>
   </si>
@@ -1245,6 +1246,141 @@
   </si>
   <si>
     <t>Evenness</t>
+  </si>
+  <si>
+    <t>0.527738813869171</t>
+  </si>
+  <si>
+    <t>0.428118253994628</t>
+  </si>
+  <si>
+    <t>0.560619047034596</t>
+  </si>
+  <si>
+    <t>0.636402551537277</t>
+  </si>
+  <si>
+    <t>0.673721732710049</t>
+  </si>
+  <si>
+    <t>0.382665220890061</t>
+  </si>
+  <si>
+    <t>0.535339425192582</t>
+  </si>
+  <si>
+    <t>0.684987394860404</t>
+  </si>
+  <si>
+    <t>0.380717672289544</t>
+  </si>
+  <si>
+    <t>0.344054285958952</t>
+  </si>
+  <si>
+    <t>0.468125365354258</t>
+  </si>
+  <si>
+    <t>0.621941665309819</t>
+  </si>
+  <si>
+    <t>0.655496333274333</t>
+  </si>
+  <si>
+    <t>0.259103008887306</t>
+  </si>
+  <si>
+    <t>0.423371636914216</t>
+  </si>
+  <si>
+    <t>0.728329596326734</t>
+  </si>
+  <si>
+    <t>0.713910278465967</t>
+  </si>
+  <si>
+    <t>0.603234451585657</t>
+  </si>
+  <si>
+    <t>0.441380686996997</t>
+  </si>
+  <si>
+    <t>0.687594352662858</t>
+  </si>
+  <si>
+    <t>0.69937980088338</t>
+  </si>
+  <si>
+    <t>0.63775675860197</t>
+  </si>
+  <si>
+    <t>0.542078829850437</t>
+  </si>
+  <si>
+    <t>0.572567507470407</t>
+  </si>
+  <si>
+    <t>0.637441988153252</t>
+  </si>
+  <si>
+    <t>0.584605694469264</t>
+  </si>
+  <si>
+    <t>0.69707793837814</t>
+  </si>
+  <si>
+    <t>0.528788280240409</t>
+  </si>
+  <si>
+    <t>0.5928153821021</t>
+  </si>
+  <si>
+    <t>0.40577467809636</t>
+  </si>
+  <si>
+    <t>0.619070629174783</t>
+  </si>
+  <si>
+    <t>0.677039327279401</t>
+  </si>
+  <si>
+    <t>0.674719492886561</t>
+  </si>
+  <si>
+    <t>0.646014898713823</t>
+  </si>
+  <si>
+    <t>0.721976687506446</t>
+  </si>
+  <si>
+    <t>0.667985166433732</t>
+  </si>
+  <si>
+    <t>0.651770433075049</t>
+  </si>
+  <si>
+    <t>0.68085941813833</t>
+  </si>
+  <si>
+    <t>0.60738819473163</t>
+  </si>
+  <si>
+    <t>0.6094150915864</t>
+  </si>
+  <si>
+    <t>0.635136098432655</t>
+  </si>
+  <si>
+    <t>0.673067309672451</t>
+  </si>
+  <si>
+    <t>0.60546742856538</t>
+  </si>
+  <si>
+    <t>0.56744395071217</t>
+  </si>
+  <si>
+    <t>0.627557698438315</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1441,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DF_Main_Data_Eveness" connectionId="4" xr16:uid="{EF77B255-B6F4-1F47-B0F3-9FE3B754C7E2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="4" xr16:uid="{CCABA4AA-B052-CF4F-BAEA-AD5E45D0DA24}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5258,8 +5394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400FBBB9-6519-5040-AB9D-5D4729D1E2FA}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5271,7 +5407,7 @@
     <col min="5" max="6" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -5379,8 +5515,8 @@
       <c r="I2" s="1">
         <v>297328908078602</v>
       </c>
-      <c r="J2" s="1">
-        <v>548063892334199</v>
+      <c r="J2" t="s">
+        <v>373</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>13</v>
@@ -5444,8 +5580,8 @@
       <c r="I3" s="1">
         <v>152169732202265</v>
       </c>
-      <c r="J3" s="1">
-        <v>489783979995091</v>
+      <c r="J3" t="s">
+        <v>374</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>19</v>
@@ -5509,8 +5645,8 @@
       <c r="I4" s="1">
         <v>243336073202731</v>
       </c>
-      <c r="J4" s="1">
-        <v>531320597904179</v>
+      <c r="J4" t="s">
+        <v>375</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>23</v>
@@ -5574,8 +5710,8 @@
       <c r="I5" s="1">
         <v>402269050556998</v>
       </c>
-      <c r="J5" s="1">
-        <v>569035945432406</v>
+      <c r="J5" t="s">
+        <v>376</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>27</v>
@@ -5639,8 +5775,8 @@
       <c r="I6" s="1">
         <v>443224541912522</v>
       </c>
-      <c r="J6" s="1">
-        <v>576205138278018</v>
+      <c r="J6" t="s">
+        <v>377</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>39</v>
@@ -5704,8 +5840,8 @@
       <c r="I7" s="1">
         <v>120591249586571</v>
       </c>
-      <c r="J7" s="1">
-        <v>466343909411207</v>
+      <c r="J7" t="s">
+        <v>378</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>42</v>
@@ -5769,8 +5905,8 @@
       <c r="I8" s="1">
         <v>275365319442134</v>
       </c>
-      <c r="J8" s="1">
-        <v>541164605185504</v>
+      <c r="J8" t="s">
+        <v>379</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>45</v>
@@ -5834,8 +5970,8 @@
       <c r="I9" s="1">
         <v>415721697071872</v>
       </c>
-      <c r="J9" s="1">
-        <v>569035945432406</v>
+      <c r="J9" t="s">
+        <v>380</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>47</v>
@@ -5899,8 +6035,8 @@
       <c r="I10" s="1">
         <v>252736475986516</v>
       </c>
-      <c r="J10" s="1">
-        <v>536129216570943</v>
+      <c r="J10" t="s">
+        <v>381</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>57</v>
@@ -5964,8 +6100,8 @@
       <c r="I11" s="1">
         <v>158109402948741</v>
       </c>
-      <c r="J11" s="1">
-        <v>489034912822175</v>
+      <c r="J11" t="s">
+        <v>382</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>59</v>
@@ -6029,8 +6165,8 @@
       <c r="I12" s="1">
         <v>230982047263278</v>
       </c>
-      <c r="J12" s="1">
-        <v>52040066870768</v>
+      <c r="J12" t="s">
+        <v>383</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>62</v>
@@ -6094,8 +6230,8 @@
       <c r="I13" s="1">
         <v>493519301522078</v>
       </c>
-      <c r="J13" s="1">
-        <v>584643877505772</v>
+      <c r="J13" t="s">
+        <v>384</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>64</v>
@@ -6159,8 +6295,8 @@
       <c r="I14" s="1">
         <v>514838493479089</v>
       </c>
-      <c r="J14" s="1">
-        <v>590808293816893</v>
+      <c r="J14" t="s">
+        <v>385</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>76</v>
@@ -6224,8 +6360,8 @@
       <c r="I15" s="1">
         <v>217805315893001</v>
       </c>
-      <c r="J15" s="1">
-        <v>523110861685459</v>
+      <c r="J15" t="s">
+        <v>386</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>80</v>
@@ -6289,8 +6425,8 @@
       <c r="I16" s="1">
         <v>182880499433165</v>
       </c>
-      <c r="J16" s="1">
-        <v>507517381523383</v>
+      <c r="J16" t="s">
+        <v>387</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>83</v>
@@ -6354,8 +6490,8 @@
       <c r="I17" s="1">
         <v>358865320040781</v>
       </c>
-      <c r="J17" s="1">
-        <v>545958551414416</v>
+      <c r="J17" t="s">
+        <v>388</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>85</v>
@@ -6419,8 +6555,8 @@
       <c r="I18" s="1">
         <v>631918340345687</v>
       </c>
-      <c r="J18" s="1">
-        <v>607764224334903</v>
+      <c r="J18" t="s">
+        <v>389</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>96</v>
@@ -6484,8 +6620,8 @@
       <c r="I19" s="1">
         <v>353919735196274</v>
       </c>
-      <c r="J19" s="1">
-        <v>560947179518496</v>
+      <c r="J19" t="s">
+        <v>390</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>99</v>
@@ -6549,8 +6685,8 @@
       <c r="I20" s="1">
         <v>246785720388643</v>
       </c>
-      <c r="J20" s="1">
-        <v>532787616878958</v>
+      <c r="J20" t="s">
+        <v>391</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>102</v>
@@ -6614,8 +6750,8 @@
       <c r="I21" s="1">
         <v>329849846387107</v>
       </c>
-      <c r="J21" s="1">
-        <v>546806014113513</v>
+      <c r="J21" t="s">
+        <v>392</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>104</v>
@@ -6679,8 +6815,8 @@
       <c r="I22" s="1">
         <v>602527871562293</v>
       </c>
-      <c r="J22" s="1">
-        <v>605443934626937</v>
+      <c r="J22" t="s">
+        <v>393</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>114</v>
@@ -6744,8 +6880,8 @@
       <c r="I23" s="1">
         <v>313512291135976</v>
       </c>
-      <c r="J23" s="1">
-        <v>54249500174814</v>
+      <c r="J23" t="s">
+        <v>394</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>116</v>
@@ -6809,8 +6945,8 @@
       <c r="I24" s="1">
         <v>207895330362197</v>
       </c>
-      <c r="J24" s="1">
-        <v>50998664278242</v>
+      <c r="J24" t="s">
+        <v>395</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>118</v>
@@ -6874,8 +7010,8 @@
       <c r="I25" s="1">
         <v>284142669685876</v>
       </c>
-      <c r="J25" s="1">
-        <v>537527840768417</v>
+      <c r="J25" t="s">
+        <v>396</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>120</v>
@@ -6939,8 +7075,8 @@
       <c r="I26" s="1">
         <v>201774607271233</v>
       </c>
-      <c r="J26" s="1">
-        <v>503695260241363</v>
+      <c r="J26" t="s">
+        <v>397</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>130</v>
@@ -7004,8 +7140,8 @@
       <c r="I27" s="1">
         <v>448816163981768</v>
       </c>
-      <c r="J27" s="1">
-        <v>575257263882563</v>
+      <c r="J27" t="s">
+        <v>398</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>132</v>
@@ -7069,8 +7205,8 @@
       <c r="I28" s="1">
         <v>339946084241505</v>
       </c>
-      <c r="J28" s="1">
-        <v>54971682252932</v>
+      <c r="J28" t="s">
+        <v>399</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>134</v>
@@ -7134,8 +7270,8 @@
       <c r="I29" s="1">
         <v>219793111711595</v>
       </c>
-      <c r="J29" s="1">
-        <v>512396397940326</v>
+      <c r="J29" t="s">
+        <v>400</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>136</v>
@@ -7199,8 +7335,8 @@
       <c r="I30" s="1">
         <v>522591537237823</v>
       </c>
-      <c r="J30" s="1">
-        <v>592958914338989</v>
+      <c r="J30" t="s">
+        <v>401</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>148</v>
@@ -7264,8 +7400,8 @@
       <c r="I31" s="1">
         <v>282958730394217</v>
       </c>
-      <c r="J31" s="1">
-        <v>54510384535657</v>
+      <c r="J31" t="s">
+        <v>402</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>150</v>
@@ -7329,8 +7465,8 @@
       <c r="I32" s="1">
         <v>254230926801996</v>
       </c>
-      <c r="J32" s="1">
-        <v>527811465923052</v>
+      <c r="J32" t="s">
+        <v>403</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>152</v>
@@ -7394,8 +7530,8 @@
       <c r="I33" s="1">
         <v>401161581156067</v>
       </c>
-      <c r="J33" s="1">
-        <v>568357976733868</v>
+      <c r="J33" t="s">
+        <v>404</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>154</v>
@@ -7459,8 +7595,8 @@
       <c r="I34" s="1">
         <v>394902669391261</v>
       </c>
-      <c r="J34" s="1">
-        <v>565599181081985</v>
+      <c r="J34" t="s">
+        <v>405</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>164</v>
@@ -7524,8 +7660,8 @@
       <c r="I35" s="1">
         <v>468055329782063</v>
       </c>
-      <c r="J35" s="1">
-        <v>578996017089725</v>
+      <c r="J35" t="s">
+        <v>406</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>167</v>
@@ -7589,8 +7725,8 @@
       <c r="I36" s="1">
         <v>351143150583439</v>
       </c>
-      <c r="J36" s="1">
-        <v>552146091786225</v>
+      <c r="J36" t="s">
+        <v>407</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>169</v>
@@ -7654,8 +7790,8 @@
       <c r="I37" s="1">
         <v>263937975750735</v>
       </c>
-      <c r="J37" s="1">
-        <v>533271879326537</v>
+      <c r="J37" t="s">
+        <v>408</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>171</v>
@@ -7719,8 +7855,8 @@
       <c r="I38" s="1">
         <v>271780332591292</v>
       </c>
-      <c r="J38" s="1">
-        <v>527299955856375</v>
+      <c r="J38" t="s">
+        <v>409</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>181</v>
@@ -7784,8 +7920,8 @@
       <c r="I39" s="1">
         <v>411607969527042</v>
       </c>
-      <c r="J39" s="1">
-        <v>563835466933375</v>
+      <c r="J39" t="s">
+        <v>410</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>184</v>
@@ -7849,8 +7985,8 @@
       <c r="I40" s="1">
         <v>333993757919604</v>
       </c>
-      <c r="J40" s="1">
-        <v>549306144334055</v>
+      <c r="J40" t="s">
+        <v>411</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>187</v>
@@ -7914,8 +8050,8 @@
       <c r="I41" s="1">
         <v>189356966204034</v>
       </c>
-      <c r="J41" s="1">
-        <v>493447393313069</v>
+      <c r="J41" t="s">
+        <v>412</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>196</v>
@@ -7979,8 +8115,8 @@
       <c r="I42" s="1">
         <v>392786987428135</v>
       </c>
-      <c r="J42" s="1">
-        <v>556452040732269</v>
+      <c r="J42" t="s">
+        <v>413</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>198</v>
@@ -8044,8 +8180,8 @@
       <c r="I43" s="1">
         <v>450806862607642</v>
       </c>
-      <c r="J43" s="1">
-        <v>570044357339069</v>
+      <c r="J43" t="s">
+        <v>414</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>201</v>
@@ -8109,8 +8245,8 @@
       <c r="I44" s="1">
         <v>222799044714598</v>
       </c>
-      <c r="J44" s="1">
-        <v>508759633523238</v>
+      <c r="J44" t="s">
+        <v>415</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>211</v>
@@ -8174,8 +8310,8 @@
       <c r="I45" s="1">
         <v>337153715796528</v>
       </c>
-      <c r="J45" s="1">
-        <v>546806014113513</v>
+      <c r="J45" t="s">
+        <v>416</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>213</v>
@@ -8239,8 +8375,8 @@
       <c r="I46" s="1">
         <v>388430086221479</v>
       </c>
-      <c r="J46" s="1">
-        <v>557972982598622</v>
+      <c r="J46" t="s">
+        <v>417</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>215</v>
@@ -8285,7 +8421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA554EE7-C051-C349-ABED-8E1A9A6027AC}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
